--- a/chart.xlsx
+++ b/chart.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16787\Documents\GitHub\Excel-Python-Playing-Together\Excel-Python-Playing-Together\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ECF255-4297-4A8C-9E47-4D7C47C0F651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E477FE-EDE8-4289-8D25-79CCB2F0A97F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Defects" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -110,7 +110,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$2</c:f>
+              <c:f>Chart!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -129,7 +129,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$2:$BR$2</c:f>
+              <c:f>Chart!$B$2:$BR$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -355,7 +355,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$3</c:f>
+              <c:f>Chart!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -374,7 +374,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$3:$BR$3</c:f>
+              <c:f>Chart!$B$3:$BR$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -600,7 +600,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$4</c:f>
+              <c:f>Chart!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -619,7 +619,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$4:$BR$4</c:f>
+              <c:f>Chart!$B$4:$BR$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -845,7 +845,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$5</c:f>
+              <c:f>Chart!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -864,7 +864,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$5:$BR$5</c:f>
+              <c:f>Chart!$B$5:$BR$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -1090,7 +1090,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$6</c:f>
+              <c:f>Chart!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1109,7 +1109,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$6:$BR$6</c:f>
+              <c:f>Chart!$B$6:$BR$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -1335,7 +1335,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$7</c:f>
+              <c:f>Chart!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1354,7 +1354,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$7:$BR$7</c:f>
+              <c:f>Chart!$B$7:$BR$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -1580,7 +1580,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$8</c:f>
+              <c:f>Chart!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1599,7 +1599,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$8:$BR$8</c:f>
+              <c:f>Chart!$B$8:$BR$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -1825,7 +1825,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$9</c:f>
+              <c:f>Chart!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1844,7 +1844,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$9:$BR$9</c:f>
+              <c:f>Chart!$B$9:$BR$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -2070,7 +2070,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$10</c:f>
+              <c:f>Chart!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2089,7 +2089,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$10:$BR$10</c:f>
+              <c:f>Chart!$B$10:$BR$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -2315,7 +2315,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$11</c:f>
+              <c:f>Chart!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2334,7 +2334,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$11:$BR$11</c:f>
+              <c:f>Chart!$B$11:$BR$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -2560,7 +2560,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$12</c:f>
+              <c:f>Chart!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2579,7 +2579,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$12:$BR$12</c:f>
+              <c:f>Chart!$B$12:$BR$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -2805,7 +2805,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$13</c:f>
+              <c:f>Chart!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2824,7 +2824,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$13:$BR$13</c:f>
+              <c:f>Chart!$B$13:$BR$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -3050,7 +3050,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$14</c:f>
+              <c:f>Chart!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3069,7 +3069,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$14:$BR$14</c:f>
+              <c:f>Chart!$B$14:$BR$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -3295,7 +3295,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$15</c:f>
+              <c:f>Chart!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3314,7 +3314,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$15:$BR$15</c:f>
+              <c:f>Chart!$B$15:$BR$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -3540,7 +3540,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$16</c:f>
+              <c:f>Chart!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3559,7 +3559,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$16:$BR$16</c:f>
+              <c:f>Chart!$B$16:$BR$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -3785,7 +3785,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$17</c:f>
+              <c:f>Chart!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3804,7 +3804,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$17:$BR$17</c:f>
+              <c:f>Chart!$B$17:$BR$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -4030,7 +4030,7 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$18</c:f>
+              <c:f>Chart!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4049,7 +4049,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$18:$BR$18</c:f>
+              <c:f>Chart!$B$18:$BR$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -4275,7 +4275,7 @@
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$19</c:f>
+              <c:f>Chart!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4294,7 +4294,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$19:$BR$19</c:f>
+              <c:f>Chart!$B$19:$BR$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -4520,7 +4520,7 @@
           <c:order val="18"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$20</c:f>
+              <c:f>Chart!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4539,7 +4539,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$20:$BR$20</c:f>
+              <c:f>Chart!$B$20:$BR$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -4765,7 +4765,7 @@
           <c:order val="19"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$21</c:f>
+              <c:f>Chart!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4784,7 +4784,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$21:$BR$21</c:f>
+              <c:f>Chart!$B$21:$BR$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -5010,7 +5010,7 @@
           <c:order val="20"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$22</c:f>
+              <c:f>Chart!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5029,7 +5029,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$22:$BR$22</c:f>
+              <c:f>Chart!$B$22:$BR$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -5683,7 +5683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -15561,8 +15561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/chart.xlsx
+++ b/chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16787\Documents\GitHub\Excel-Python-Playing-Together\Excel-Python-Playing-Together\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E477FE-EDE8-4289-8D25-79CCB2F0A97F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33CA122-7140-4310-A12A-6C9C71E4E8B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defects" sheetId="1" r:id="rId1"/>
@@ -5683,7 +5683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -15561,7 +15561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
